--- a/spliced/falling/2023-03-25_17-56-24/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-24/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.5379581451416018</v>
+        <v>-0.7163823843002323</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9855325698852542</v>
+        <v>1.020635187625885</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2731702357530603</v>
+        <v>-1.5041623711586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.6476110458374021</v>
+        <v>-1.034550857543945</v>
       </c>
       <c r="B3" t="n">
-        <v>1.080279231071473</v>
+        <v>0.722710514068603</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8854551434516924</v>
+        <v>-2.023182964324951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.7163823843002323</v>
+        <v>-1.094144725799564</v>
       </c>
       <c r="B4" t="n">
-        <v>1.020635187625885</v>
+        <v>0.1154488921165452</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.5041623711586</v>
+        <v>-2.199896037578582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.034550857543945</v>
+        <v>-2.176979589462283</v>
       </c>
       <c r="B5" t="n">
-        <v>0.722710514068603</v>
+        <v>-0.3265879869461064</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.023182964324951</v>
+        <v>-1.990285539627077</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.094144725799564</v>
+        <v>-3.141414546966552</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1154488921165452</v>
+        <v>-0.5323349475860597</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.199896037578582</v>
+        <v>-2.878420627117159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.176979589462283</v>
+        <v>-2.882815837860107</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.3265879869461064</v>
+        <v>-0.6016731262207031</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.990285539627077</v>
+        <v>-3.885647296905518</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.141414546966552</v>
+        <v>-0.8601818561553913</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5323349475860597</v>
+        <v>-1.684099733829501</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.878420627117159</v>
+        <v>-2.678740978240965</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.882815837860107</v>
+        <v>-5.657242393493673</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6016731262207031</v>
+        <v>3.606464934349082</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.885647296905518</v>
+        <v>0.08138247728348924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.8601818561553913</v>
+        <v>8.681338095665012</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.684099733829501</v>
+        <v>-7.609756255149873</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.678740978240965</v>
+        <v>15.81418170332913</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.657242393493673</v>
+        <v>-0.144448471069385</v>
       </c>
       <c r="B11" t="n">
-        <v>3.606464934349082</v>
+        <v>-5.267538833618145</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08138247728348924</v>
+        <v>6.748085594177196</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.681338095665012</v>
+        <v>-2.751119017601013</v>
       </c>
       <c r="B12" t="n">
-        <v>-7.609756255149873</v>
+        <v>-0.8004006147384595</v>
       </c>
       <c r="C12" t="n">
-        <v>15.81418170332913</v>
+        <v>0.7070116698741864</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.144448471069385</v>
+        <v>-0.8653369903564379</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.267538833618145</v>
+        <v>0.6911904811859146</v>
       </c>
       <c r="C13" t="n">
-        <v>6.748085594177196</v>
+        <v>0.1385533899068852</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.751119017601013</v>
+        <v>-0.05353097915649382</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.8004006147384595</v>
+        <v>0.9274977564811712</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7070116698741864</v>
+        <v>0.07016281634568972</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.8653369903564379</v>
+        <v>-0.02049140930175772</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6911904811859146</v>
+        <v>0.119993495941156</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1385533899068852</v>
+        <v>-1.037646460533149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.05353097915649382</v>
+        <v>-0.4113636493682893</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9274977564811712</v>
+        <v>0.586677223443993</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07016281634568972</v>
+        <v>-0.8508657932281428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.02049140930175772</v>
+        <v>-0.4694080352783192</v>
       </c>
       <c r="B17" t="n">
-        <v>0.119993495941156</v>
+        <v>1.210235714912413</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.037646460533149</v>
+        <v>-0.3317522853612906</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4113636493682893</v>
+        <v>-0.1741046428680419</v>
       </c>
       <c r="B18" t="n">
-        <v>0.586677223443993</v>
+        <v>0.8977988541126247</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8508657932281428</v>
+        <v>0.01361500471830607</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.4694080352783192</v>
+        <v>-0.1291728973388671</v>
       </c>
       <c r="B19" t="n">
-        <v>1.210235714912413</v>
+        <v>1.006058931350709</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.3317522853612906</v>
+        <v>0.4721004664897911</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1741046428680419</v>
+        <v>-0.002682542800902174</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8977988541126247</v>
+        <v>1.269368827342987</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01361500471830607</v>
+        <v>0.2094295166432854</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1291728973388671</v>
+        <v>0.1471566200256338</v>
       </c>
       <c r="B21" t="n">
-        <v>1.006058931350709</v>
+        <v>1.182808732986451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4721004664897911</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.002682542800902174</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.269368827342987</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2094295166432854</v>
+        <v>0.03668105900287391</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-56-24/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-24/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.7163823843002323</v>
+        <v>-0.5779368877410893</v>
       </c>
       <c r="B2" t="n">
-        <v>1.020635187625885</v>
+        <v>1.070879459381104</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.5041623711586</v>
+        <v>0.1698004633188247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.034550857543945</v>
+        <v>-0.6250030517578123</v>
       </c>
       <c r="B3" t="n">
-        <v>0.722710514068603</v>
+        <v>1.073733139038086</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.023182964324951</v>
+        <v>0.1257202506065367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.094144725799564</v>
+        <v>-0.5019012451171875</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1154488921165452</v>
+        <v>1.114973473548889</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.199896037578582</v>
+        <v>0.08085805475711817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.176979589462283</v>
+        <v>-0.5343909263610841</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3265879869461064</v>
+        <v>1.139204859733582</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.990285539627077</v>
+        <v>0.1443376690149308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.141414546966552</v>
+        <v>-0.5579452037811278</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5323349475860597</v>
+        <v>1.112600553035736</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.878420627117159</v>
+        <v>0.2124309107661247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.882815837860107</v>
+        <v>-0.4796955108642578</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6016731262207031</v>
+        <v>1.016827774047851</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.885647296905518</v>
+        <v>0.1028751075267787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.8601818561553913</v>
+        <v>-0.5379581451416018</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.684099733829501</v>
+        <v>0.9855325698852542</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.678740978240965</v>
+        <v>-0.2731702357530603</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.657242393493673</v>
+        <v>-0.6476110458374021</v>
       </c>
       <c r="B9" t="n">
-        <v>3.606464934349082</v>
+        <v>1.080279231071473</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08138247728348924</v>
+        <v>-0.8854551434516924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.681338095665012</v>
+        <v>-0.7163823843002323</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.609756255149873</v>
+        <v>1.020635187625885</v>
       </c>
       <c r="C10" t="n">
-        <v>15.81418170332913</v>
+        <v>-1.5041623711586</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.144448471069385</v>
+        <v>-1.034550857543945</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.267538833618145</v>
+        <v>0.722710514068603</v>
       </c>
       <c r="C11" t="n">
-        <v>6.748085594177196</v>
+        <v>-2.023182964324951</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.751119017601013</v>
+        <v>-1.094144725799564</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.8004006147384595</v>
+        <v>0.1154488921165452</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7070116698741864</v>
+        <v>-2.199896037578582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.8653369903564379</v>
+        <v>-2.176979589462283</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6911904811859146</v>
+        <v>-0.3265879869461064</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1385533899068852</v>
+        <v>-1.990285539627077</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.05353097915649382</v>
+        <v>-3.141414546966552</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9274977564811712</v>
+        <v>-0.5323349475860597</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07016281634568972</v>
+        <v>-2.878420627117159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.02049140930175772</v>
+        <v>-2.882815837860107</v>
       </c>
       <c r="B15" t="n">
-        <v>0.119993495941156</v>
+        <v>-0.6016731262207031</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.037646460533149</v>
+        <v>-3.885647296905518</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.4113636493682893</v>
+        <v>-0.8601818561553913</v>
       </c>
       <c r="B16" t="n">
-        <v>0.586677223443993</v>
+        <v>-1.684099733829501</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.8508657932281428</v>
+        <v>-2.678740978240965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.4694080352783192</v>
+        <v>-5.657242393493673</v>
       </c>
       <c r="B17" t="n">
-        <v>1.210235714912413</v>
+        <v>3.606464934349082</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3317522853612906</v>
+        <v>0.08138247728348924</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1741046428680419</v>
+        <v>8.681338095665012</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8977988541126247</v>
+        <v>-7.609756255149873</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01361500471830607</v>
+        <v>15.81418170332913</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1291728973388671</v>
+        <v>-0.144448471069385</v>
       </c>
       <c r="B19" t="n">
-        <v>1.006058931350709</v>
+        <v>-5.267538833618145</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4721004664897911</v>
+        <v>6.748085594177196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.002682542800902174</v>
+        <v>-2.751119017601013</v>
       </c>
       <c r="B20" t="n">
-        <v>1.269368827342987</v>
+        <v>-0.8004006147384595</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2094295166432854</v>
+        <v>0.7070116698741864</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.8653369903564379</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.6911904811859146</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1385533899068852</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.05353097915649382</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9274977564811712</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.07016281634568972</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.02049140930175772</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.119993495941156</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.037646460533149</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4113636493682893</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.586677223443993</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.8508657932281428</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.4694080352783192</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.210235714912413</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3317522853612906</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1741046428680419</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8977988541126247</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01361500471830607</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1291728973388671</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.006058931350709</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4721004664897911</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.002682542800902174</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.269368827342987</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2094295166432854</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>0.1471566200256338</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>1.182808732986451</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>0.03668105900287391</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.00381779670715305</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1.210070580244063</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.2140652965754264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.03790302276611289</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.083934617042542</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.04758519232273038</v>
       </c>
     </row>
   </sheetData>
